--- a/allocation.xlsx
+++ b/allocation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>资产编号</t>
   </si>
@@ -62,25 +62,52 @@
     <t>分配日期</t>
   </si>
   <si>
+    <t>笔记本</t>
+  </si>
+  <si>
+    <t>华硕</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>上级采购</t>
+  </si>
+  <si>
+    <t>借用</t>
+  </si>
+  <si>
+    <t>2017-09-01 15:01:04</t>
+  </si>
+  <si>
+    <t>赵士劲</t>
+  </si>
+  <si>
+    <t>局长室</t>
+  </si>
+  <si>
+    <t>局长</t>
+  </si>
+  <si>
+    <t>13828211678</t>
+  </si>
+  <si>
+    <t>2017-02-07 15:51:38</t>
+  </si>
+  <si>
     <t>显示器</t>
   </si>
   <si>
     <t>惠普HP</t>
   </si>
   <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>上级采购</t>
-  </si>
-  <si>
-    <t>借用</t>
-  </si>
-  <si>
     <t>2017-09-27 15:27:18</t>
   </si>
   <si>
-    <t>2017-10-26 10:27:22</t>
+    <t>2017-11-02 11:00:38</t>
+  </si>
+  <si>
+    <t>2017-11-02 11:29:23</t>
   </si>
   <si>
     <t>清华同方</t>
@@ -92,21 +119,9 @@
     <t>2017-09-21 15:11:22</t>
   </si>
   <si>
-    <t>许远帆</t>
-  </si>
-  <si>
-    <t>信息中心</t>
-  </si>
-  <si>
-    <t>科员</t>
-  </si>
-  <si>
     <t>2017-09-30 10:50:48</t>
   </si>
   <si>
-    <t>华硕</t>
-  </si>
-  <si>
     <t>外网</t>
   </si>
   <si>
@@ -116,12 +131,6 @@
     <t>2017-10-27 08:31:38</t>
   </si>
   <si>
-    <t>笔记本</t>
-  </si>
-  <si>
-    <t>2017-09-01 15:01:04</t>
-  </si>
-  <si>
     <t>2017-10-18 08:14:50</t>
   </si>
   <si>
@@ -129,9 +138,6 @@
   </si>
   <si>
     <t>2017-10-26 08:14:34</t>
-  </si>
-  <si>
-    <t>2017-10-26 10:35:42</t>
   </si>
 </sst>
 </file>
@@ -470,7 +476,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +533,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -537,7 +543,7 @@
       </c>
       <c r="D2"/>
       <c r="E2">
-        <v>4545</v>
+        <v>777</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -551,28 +557,38 @@
       <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2">
+        <v>6680808</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
       <c r="O2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D3"/>
       <c r="E3">
-        <v>1221</v>
+        <v>4545</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -581,88 +597,88 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" t="s">
+      <c r="M3">
+        <v>6680808</v>
+      </c>
+      <c r="N3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3">
-        <v>123456</v>
-      </c>
-      <c r="N3">
-        <v>1234567890</v>
-      </c>
       <c r="O3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D4"/>
       <c r="E4">
-        <v>888</v>
+        <v>777</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
       </c>
       <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
         <v>23</v>
       </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" t="s">
-        <v>27</v>
-      </c>
       <c r="M4">
-        <v>123456</v>
-      </c>
-      <c r="N4">
-        <v>1234567890</v>
+        <v>6680808</v>
+      </c>
+      <c r="N4" t="s">
+        <v>24</v>
       </c>
       <c r="O4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5"/>
       <c r="E5">
-        <v>777</v>
+        <v>1221</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -671,70 +687,70 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5">
+        <v>6680808</v>
+      </c>
+      <c r="N5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" t="s">
         <v>34</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5">
-        <v>123456</v>
-      </c>
-      <c r="N5">
-        <v>1234567890</v>
-      </c>
-      <c r="O5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D6"/>
       <c r="E6">
-        <v>666</v>
+        <v>888</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
         <v>36</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>123456</v>
-      </c>
-      <c r="N6">
-        <v>1234567890</v>
+        <v>6680808</v>
+      </c>
+      <c r="N6" t="s">
+        <v>24</v>
       </c>
       <c r="O6" t="s">
         <v>37</v>
@@ -742,7 +758,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -752,7 +768,7 @@
       </c>
       <c r="D7"/>
       <c r="E7">
-        <v>4545</v>
+        <v>777</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
@@ -766,13 +782,68 @@
       <c r="I7" t="s">
         <v>20</v>
       </c>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7">
+        <v>6680808</v>
+      </c>
+      <c r="N7" t="s">
+        <v>24</v>
+      </c>
       <c r="O7" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8">
+        <v>666</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8">
+        <v>6680808</v>
+      </c>
+      <c r="N8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/allocation.xlsx
+++ b/allocation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>资产编号</t>
   </si>
@@ -68,79 +68,76 @@
     <t>分配备注</t>
   </si>
   <si>
+    <t>主机</t>
+  </si>
+  <si>
+    <t>联想LENOVO</t>
+  </si>
+  <si>
+    <t>LT2223WA</t>
+  </si>
+  <si>
+    <t>0M05833712N1636</t>
+  </si>
+  <si>
+    <t>内网</t>
+  </si>
+  <si>
+    <t>本级采购</t>
+  </si>
+  <si>
+    <t>在用</t>
+  </si>
+  <si>
+    <t>2017-12-15 16:24:11</t>
+  </si>
+  <si>
+    <t>损坏</t>
+  </si>
+  <si>
+    <t>许远帆</t>
+  </si>
+  <si>
+    <t>信息中心</t>
+  </si>
+  <si>
+    <t>科员</t>
+  </si>
+  <si>
+    <t>17875190125</t>
+  </si>
+  <si>
+    <t>2017-12-17 22:04:53</t>
+  </si>
+  <si>
     <t>显示器</t>
   </si>
   <si>
     <t>清华同方</t>
   </si>
   <si>
-    <t>LT2223WA</t>
-  </si>
-  <si>
     <t>1S60E8HCR5CAU55DH467</t>
   </si>
   <si>
-    <t>内网</t>
-  </si>
-  <si>
-    <t>本级采购</t>
-  </si>
-  <si>
-    <t>在用</t>
+    <t>报废</t>
   </si>
   <si>
     <t>2017-12-15 16:28:32</t>
   </si>
   <si>
-    <t>赵士劲</t>
-  </si>
-  <si>
-    <t>局长室</t>
-  </si>
-  <si>
-    <t>局长</t>
-  </si>
-  <si>
-    <t>13828211678</t>
+    <t>黄廉团</t>
+  </si>
+  <si>
+    <t>主任</t>
+  </si>
+  <si>
+    <t>18820698123</t>
   </si>
   <si>
     <t>2017-12-15 21:44:54</t>
   </si>
   <si>
     <t>我备注一下</t>
-  </si>
-  <si>
-    <t>主机</t>
-  </si>
-  <si>
-    <t>联想LENOVO</t>
-  </si>
-  <si>
-    <t>0M05833712N1636</t>
-  </si>
-  <si>
-    <t>2017-12-15 16:24:11</t>
-  </si>
-  <si>
-    <t>损坏</t>
-  </si>
-  <si>
-    <t>许远帆</t>
-  </si>
-  <si>
-    <t>信息中心</t>
-  </si>
-  <si>
-    <t>科员</t>
-  </si>
-  <si>
-    <t>17875190125</t>
-  </si>
-  <si>
-    <t>2017-12-15 21:43:56</t>
-  </si>
-  <si>
-    <t>这是分配备注</t>
   </si>
 </sst>
 </file>
@@ -542,7 +539,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -568,32 +565,32 @@
       <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="J2"/>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N2">
-        <v>6680808</v>
+        <v>6684701</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" t="s">
         <v>30</v>
       </c>
+      <c r="Q2"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
@@ -614,34 +611,32 @@
         <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" t="s">
         <v>35</v>
       </c>
+      <c r="J3"/>
       <c r="K3" t="s">
         <v>36</v>
       </c>
       <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
         <v>37</v>
-      </c>
-      <c r="M3" t="s">
-        <v>38</v>
       </c>
       <c r="N3">
         <v>6684701</v>
       </c>
       <c r="O3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" t="s">
         <v>39</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>40</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
